--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B67FFA-2361-4176-90BD-053C88E3CE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACF646-C629-4E9B-B813-99F790CFD060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="175">
   <si>
     <t>Packet</t>
   </si>
@@ -516,6 +516,51 @@
   </si>
   <si>
     <t>Specific</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>clickEvent</t>
+  </si>
+  <si>
+    <t>hoverEvent</t>
+  </si>
+  <si>
+    <t>translate Component</t>
+  </si>
+  <si>
+    <t>keybind Component</t>
+  </si>
+  <si>
+    <t>score Component</t>
+  </si>
+  <si>
+    <t>convert to better names, Text.d.ts</t>
+  </si>
+  <si>
+    <t>convert to better names, implement item NBT, Tekst.d.ts</t>
+  </si>
+  <si>
+    <t>CustomError</t>
+  </si>
+  <si>
+    <t>expectationNotMet</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>Action can't be performed right now</t>
+  </si>
+  <si>
+    <t>Can't set</t>
+  </si>
+  <si>
+    <t>chatToArray(</t>
   </si>
 </sst>
 </file>
@@ -755,13 +800,8 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="16">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -775,154 +815,14 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1029,83 +929,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3112,32 +2935,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:D143">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"Client"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F34:F35 F20 F39 F41 F45 F5 F91 F112 F110 E5:E143 F123:F124 F9:F10 F47 F56">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110 E5:E143 F123:F124 F9:F10 F47 F56">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3151,16 +2974,16 @@
   <dimension ref="C2:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -3180,69 +3003,121 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
@@ -3787,29 +3662,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E104">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E104">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F104">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3853,7 +3728,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>26.258992805755394</v>
+        <v>28.201438848920869</v>
       </c>
     </row>
   </sheetData>
@@ -3870,7 +3745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D34">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3884,7 +3759,7 @@
   <dimension ref="C4:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACF646-C629-4E9B-B813-99F790CFD060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52F7C3-2E44-46AA-9EE8-EEB8599D3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packets" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Stats" sheetId="2" r:id="rId3"/>
     <sheet name="Settings" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="174">
   <si>
     <t>Packet</t>
   </si>
@@ -504,9 +507,6 @@
   </si>
   <si>
     <t>translate, sender, position</t>
-  </si>
-  <si>
-    <t>q</t>
   </si>
   <si>
     <t>worlds, viewDistance, maxPlayers</t>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F143"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1447,9 +1447,7 @@
       <c r="E21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22" s="4" t="s">
@@ -1696,7 +1694,7 @@
         <v>140</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
@@ -1903,7 +1901,7 @@
         <v>94</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F58" s="6"/>
     </row>
@@ -2973,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEA0A1E-1012-46E5-BEEA-07D7C80FD93F}">
   <dimension ref="C2:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2990,10 +2988,10 @@
     <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -3004,10 +3002,10 @@
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>138</v>
@@ -3017,31 +3015,31 @@
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>139</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>139</v>
@@ -3051,7 +3049,7 @@
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>139</v>
@@ -3061,7 +3059,7 @@
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>139</v>
@@ -3071,7 +3069,7 @@
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>139</v>
@@ -3080,10 +3078,10 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>139</v>
@@ -3093,7 +3091,7 @@
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>139</v>
@@ -3103,7 +3101,7 @@
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>139</v>
@@ -3113,7 +3111,7 @@
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>138</v>
@@ -3728,7 +3726,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>28.201438848920869</v>
+        <v>28.273381294964029</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52F7C3-2E44-46AA-9EE8-EEB8599D3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5648E198-8743-4A1C-9A82-E3EDF5A14B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1481,7 +1481,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -1627,7 +1627,7 @@
         <v>94</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F36" s="6"/>
     </row>
@@ -3726,7 +3726,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>28.273381294964029</v>
+        <v>28.992805755395683</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5648E198-8743-4A1C-9A82-E3EDF5A14B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A29385-0F4B-45B1-8498-86A5B4AAE43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1481,7 +1481,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -1817,7 +1817,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -3726,7 +3726,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>28.992805755395683</v>
+        <v>29.712230215827333</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A29385-0F4B-45B1-8498-86A5B4AAE43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6563D-C0CC-4205-9187-5A7FAC7BF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2879,7 +2879,7 @@
         <v>135</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F139" s="6"/>
     </row>
@@ -3726,7 +3726,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>29.712230215827333</v>
+        <v>30.43165467625899</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6563D-C0CC-4205-9187-5A7FAC7BF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA5EBC-869E-411D-93C7-42605517EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packets" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="173">
   <si>
     <t>Packet</t>
   </si>
@@ -506,9 +506,6 @@
     <t>see player info and Spawn player</t>
   </si>
   <si>
-    <t>translate, sender, position</t>
-  </si>
-  <si>
     <t>worlds, viewDistance, maxPlayers</t>
   </si>
   <si>
@@ -542,9 +539,6 @@
     <t>convert to better names, Text.d.ts</t>
   </si>
   <si>
-    <t>convert to better names, implement item NBT, Tekst.d.ts</t>
-  </si>
-  <si>
     <t>CustomError</t>
   </si>
   <si>
@@ -561,6 +555,9 @@
   </si>
   <si>
     <t>chatToArray(</t>
+  </si>
+  <si>
+    <t>see Text</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1431,10 +1428,10 @@
         <v>94</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
@@ -1694,7 +1691,7 @@
         <v>140</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
@@ -2971,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEA0A1E-1012-46E5-BEEA-07D7C80FD93F}">
   <dimension ref="C2:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2988,10 +2985,10 @@
     <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -3002,10 +2999,10 @@
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>138</v>
@@ -3015,51 +3012,51 @@
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>139</v>
@@ -3069,7 +3066,7 @@
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>139</v>
@@ -3078,10 +3075,10 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>139</v>
@@ -3091,7 +3088,7 @@
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>139</v>
@@ -3101,7 +3098,7 @@
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>139</v>
@@ -3111,7 +3108,7 @@
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>138</v>
@@ -3726,7 +3723,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>30.43165467625899</v>
+        <v>33.093525179856108</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA5EBC-869E-411D-93C7-42605517EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885BD62E-9C06-4FC2-85F6-E9C0E54B2421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2969,7 +2969,7 @@
   <dimension ref="C2:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885BD62E-9C06-4FC2-85F6-E9C0E54B2421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329E1816-58B7-4FAF-A2AD-7F3B727073A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packets" sheetId="1" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F143"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,7 +1478,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -2968,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEA0A1E-1012-46E5-BEEA-07D7C80FD93F}">
   <dimension ref="C2:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3723,7 +3723,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>33.093525179856108</v>
+        <v>33.812949640287762</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329E1816-58B7-4FAF-A2AD-7F3B727073A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E99817-6B00-468A-B3C0-F00BCBD0FBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="173">
   <si>
     <t>Packet</t>
   </si>
@@ -1203,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F143"/>
+  <dimension ref="C3:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2494,19 +2494,19 @@
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="4" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>135</v>
@@ -2518,67 +2518,67 @@
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F110" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="F110" s="6"/>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" s="4" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F112" s="6"/>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" s="4" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>135</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>135</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>135</v>
@@ -2614,19 +2614,19 @@
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" s="4" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F118" s="6"/>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" s="4" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>135</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>135</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>135</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" s="4" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>135</v>
@@ -2674,21 +2674,19 @@
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" s="4" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>148</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F123" s="6"/>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>135</v>
@@ -2697,24 +2695,26 @@
         <v>140</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F125" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>135</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>135</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>135</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>135</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>135</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>135</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>135</v>
@@ -2798,31 +2798,31 @@
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" s="4" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" s="4" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>135</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>135</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>135</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>135</v>
@@ -2870,31 +2870,31 @@
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>135</v>
@@ -2906,30 +2906,42 @@
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C143" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F142" s="6"/>
-    </row>
-    <row r="143" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C143" s="8" t="s">
+      <c r="D143" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C144" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" s="10"/>
+      <c r="D144" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F144" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D143">
+  <conditionalFormatting sqref="D5:D144">
     <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
@@ -2937,7 +2949,7 @@
       <formula>"Client"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37 F34:F35 F20 F39 F41 F45 F5 F91 F112 F110 E5:E143 F123:F124 F9:F10 F47 F56">
+  <conditionalFormatting sqref="F37 F34:F35 F20 F39 F41 F45 F5 F91 F113 F111 E5:E144 F124:F125 F9:F10 F47 F56">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
@@ -2954,7 +2966,7 @@
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110 E5:E143 F123:F124 F9:F10 F47 F56">
+  <conditionalFormatting sqref="F111 E5:E144 F124:F125 F9:F10 F47 F56">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
@@ -3711,19 +3723,19 @@
       <c r="D4" s="3">
         <f>(
 (
-(COUNTIF(Packets!E5:E143,"fully implemented")*Settings!D5)
-+(COUNTIF(Packets!E5:E143,"working implemented")*Settings!D6)
-+(COUNTIF(Packets!E5:E143,"partly implemented")*Settings!D7)
-+(COUNTIF(Packets!E5:E143,"tried")*Settings!D8)
-+(COUNTIF(Packets!E5:E143,"not started")*Settings!D9)
+(COUNTIF(Packets!E5:E144,"fully implemented")*Settings!D5)
++(COUNTIF(Packets!E5:E144,"working implemented")*Settings!D6)
++(COUNTIF(Packets!E5:E144,"partly implemented")*Settings!D7)
++(COUNTIF(Packets!E5:E144,"tried")*Settings!D8)
++(COUNTIF(Packets!E5:E144,"not started")*Settings!D9)
 +(COUNTIF(Miscellaneous!E4:E104,"fully implemented")*Settings!D5)
 +(COUNTIF(Miscellaneous!E4:E104,"working implemented")*Settings!D6)
 +(COUNTIF(Miscellaneous!E4:E104,"partly implemented")*Settings!D7)
 +(COUNTIF(Miscellaneous!E4:E104,"tried")*Settings!D8)
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
-)/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104))
+)/(ROWS(Packets!E5:E144+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>33.812949640287762</v>
+        <v>34.285714285714278</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E99817-6B00-468A-B3C0-F00BCBD0FBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5FBA2-DC0D-4038-A119-3FA01C9897BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="174">
   <si>
     <t>Packet</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>see Text</t>
+  </si>
+  <si>
+    <t>Close inventory</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2500,9 +2503,11 @@
         <v>135</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F108" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="4" t="s">
@@ -2936,7 +2941,7 @@
         <v>135</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F144" s="10"/>
     </row>
@@ -3705,7 +3710,7 @@
   <dimension ref="C4:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3735,7 +3740,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E144+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>34.285714285714278</v>
+        <v>34.785714285714278</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5FBA2-DC0D-4038-A119-3FA01C9897BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7AA7CD-897A-4A0D-B310-A39F8ABC0108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="173">
   <si>
     <t>Packet</t>
   </si>
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>see Text</t>
-  </si>
-  <si>
-    <t>Close inventory</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2503,11 +2500,9 @@
         <v>135</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>173</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F108" s="6"/>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="4" t="s">
@@ -3740,7 +3735,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E144+COUNTA(Miscellaneous!E4:E104))
 )*100)</f>
-        <v>34.785714285714278</v>
+        <v>34.999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7AA7CD-897A-4A0D-B310-A39F8ABC0108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08771D00-9544-4D5F-BB99-0CD07032801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packets" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="173">
   <si>
     <t>Packet</t>
   </si>
@@ -545,9 +567,6 @@
     <t>expectationNotMet</t>
   </si>
   <si>
-    <t>Not implemented</t>
-  </si>
-  <si>
     <t>Action can't be performed right now</t>
   </si>
   <si>
@@ -558,12 +577,18 @@
   </si>
   <si>
     <t>see Text</t>
+  </si>
+  <si>
+    <t>length loading bar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -793,11 +818,161 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1205,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129:E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1398,13 +1573,13 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" s="6"/>
     </row>
@@ -1431,7 +1606,7 @@
         <v>138</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
@@ -1952,13 +2127,13 @@
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="6"/>
     </row>
@@ -2942,32 +3117,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:D144">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"Client"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F34:F35 F20 F39 F41 F45 F5 F91 F113 F111 E5:E144 F124:F125 F9:F10 F47 F56">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 E5:E144 F124:F125 F9:F10 F47 F56">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2981,7 +3156,7 @@
   <dimension ref="C2:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3078,7 +3253,7 @@
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>139</v>
@@ -3090,17 +3265,17 @@
         <v>166</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>139</v>
@@ -3110,7 +3285,7 @@
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>139</v>
@@ -3119,12 +3294,8 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
-      <c r="D14" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
@@ -3669,29 +3840,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E104">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E104">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F104">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3702,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F031A1-1BAA-40E9-B49C-760E1954E8E5}">
-  <dimension ref="C4:D4"/>
+  <dimension ref="C4:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3716,12 +3887,12 @@
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="3">
-        <f>(
+      <c r="D4" s="3" cm="1">
+        <f t="array" ref="D4">(
 (
 (COUNTIF(Packets!E5:E144,"fully implemented")*Settings!D5)
 +(COUNTIF(Packets!E5:E144,"working implemented")*Settings!D6)
@@ -3738,9 +3909,142 @@
         <v>34.999999999999993</v>
       </c>
     </row>
+    <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0.59999999999999876</v>
+      </c>
+      <c r="J7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0.59999999999999876</v>
+      </c>
+      <c r="J8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="31">
+        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D4">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -3751,22 +4055,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D34">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="C4:D6 C9:D34 C7:C8">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7:S8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="80"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79DE60-9FBD-4AFE-B354-2911D8201B1C}">
-  <dimension ref="C4:D9"/>
+  <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3792,7 +4108,7 @@
         <v>151</v>
       </c>
       <c r="D6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
@@ -3817,6 +4133,14 @@
       </c>
       <c r="D9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08771D00-9544-4D5F-BB99-0CD07032801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529D2E0-89B5-4A18-8F34-DCF00513F4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,9 +767,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -824,155 +821,14 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <border>
         <left style="thin">
@@ -1381,7 +1237,7 @@
   <dimension ref="C3:F144"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129:E132"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1396,1753 +1252,1753 @@
   <sheetData>
     <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="D12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="D14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="D15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="D16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="D18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="D19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="6"/>
+      <c r="D21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="6"/>
+      <c r="D22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="6"/>
+      <c r="D23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="D25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="D26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="6"/>
+      <c r="D27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="6"/>
+      <c r="D28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="6"/>
+      <c r="D29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="6"/>
+      <c r="D30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="6"/>
+      <c r="D31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="6"/>
+      <c r="D32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="6"/>
+      <c r="D33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="6"/>
+      <c r="D34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="6"/>
+      <c r="D36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="6"/>
+      <c r="D38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="6"/>
+      <c r="D40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="6"/>
+      <c r="D42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="6"/>
+      <c r="D43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="6"/>
+      <c r="D44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="6"/>
+      <c r="D46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="D47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="6"/>
+      <c r="D48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="6"/>
+      <c r="D49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="6"/>
+      <c r="D50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="6"/>
+      <c r="D51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="6"/>
+      <c r="D52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="6"/>
+      <c r="D53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="6"/>
+      <c r="D54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="6"/>
+      <c r="D55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="6"/>
+      <c r="D56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="6"/>
+      <c r="D57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="D58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="6"/>
+      <c r="D59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="6"/>
+      <c r="D60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="6"/>
+      <c r="D61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="6"/>
+      <c r="D62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="6"/>
+      <c r="D63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="6"/>
+      <c r="D64" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="6"/>
+      <c r="D65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="6"/>
+      <c r="D66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="6"/>
+      <c r="D67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F68" s="6"/>
+      <c r="D68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="6"/>
+      <c r="D69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="6"/>
+      <c r="D70" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="6"/>
+      <c r="D71" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="6"/>
+      <c r="D72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="6"/>
+      <c r="D73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="6"/>
+      <c r="D74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="6"/>
+      <c r="D75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" s="6"/>
+      <c r="D76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F77" s="6"/>
+      <c r="D77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="6"/>
+      <c r="D78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="6"/>
+      <c r="D79" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="6"/>
+      <c r="D80" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="6"/>
+      <c r="D81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" s="6"/>
+      <c r="D82" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83" s="6"/>
+      <c r="D83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F84" s="6"/>
+      <c r="D84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" s="6"/>
+      <c r="D85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F86" s="6"/>
+      <c r="D86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F87" s="6"/>
+      <c r="D87" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="6"/>
+      <c r="D88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="6"/>
+      <c r="D89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="6"/>
+      <c r="D90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E91" s="5" t="s">
+      <c r="D91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="6"/>
+      <c r="D92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="6"/>
+      <c r="D93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="6"/>
+      <c r="D94" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="6"/>
+      <c r="D95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" s="6"/>
+      <c r="D96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F97" s="6"/>
+      <c r="D97" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="6"/>
+      <c r="D98" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F99" s="6"/>
+      <c r="D99" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="D100" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="6"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F101" s="6"/>
+      <c r="D101" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F102" s="6"/>
+      <c r="D102" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="5"/>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F103" s="6"/>
+      <c r="D103" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="5"/>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F104" s="6"/>
+      <c r="D104" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="5"/>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F105" s="6"/>
+      <c r="D105" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="5"/>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F106" s="6"/>
+      <c r="D106" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" s="6"/>
+      <c r="D107" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F108" s="6"/>
+      <c r="D108" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" s="6"/>
+      <c r="D109" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F110" s="6"/>
+      <c r="D110" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F111" s="7"/>
+      <c r="D111" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F112" s="6"/>
+      <c r="D112" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F113" s="6"/>
+      <c r="D113" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113" s="5"/>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" s="5" t="s">
+      <c r="D114" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F114" s="6"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F115" s="6"/>
+      <c r="D115" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F116" s="6"/>
+      <c r="D116" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F117" s="6"/>
+      <c r="D117" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117" s="5"/>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F118" s="6"/>
+      <c r="D118" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" s="6"/>
+      <c r="D119" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="5"/>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F120" s="6"/>
+      <c r="D120" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F121" s="6"/>
+      <c r="D121" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F121" s="5"/>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F122" s="6"/>
+      <c r="D122" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="5"/>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F123" s="6"/>
+      <c r="D123" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" s="5"/>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="5" t="s">
+      <c r="D124" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="5" t="s">
+      <c r="D125" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F126" s="6"/>
+      <c r="D126" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="5"/>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" s="6"/>
+      <c r="D127" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F128" s="6"/>
+      <c r="D128" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F129" s="6"/>
+      <c r="D129" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F130" s="6"/>
+      <c r="D130" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F131" s="6"/>
+      <c r="D131" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="5"/>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F132" s="6"/>
+      <c r="D132" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132" s="5"/>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F133" s="6"/>
+      <c r="D133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" s="5"/>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F134" s="6"/>
+      <c r="D134" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" s="5"/>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F135" s="6"/>
+      <c r="D135" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" s="5"/>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F136" s="6"/>
+      <c r="D136" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F137" s="6"/>
+      <c r="D137" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F138" s="6"/>
+      <c r="D138" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" s="5"/>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F139" s="6"/>
+      <c r="D139" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" s="5"/>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F140" s="6"/>
+      <c r="D140" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F141" s="6"/>
+      <c r="D141" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F142" s="6"/>
+      <c r="D142" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" s="5"/>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" s="6"/>
+      <c r="D143" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F143" s="5"/>
     </row>
     <row r="144" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F144" s="10"/>
+      <c r="D144" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F144" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:D144">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"Client"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F34:F35 F20 F39 F41 F45 F5 F91 F113 F111 E5:E144 F124:F125 F9:F10 F47 F56">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 E5:E144 F124:F125 F9:F10 F47 F56">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3171,698 +3027,698 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="17"/>
+      <c r="E4" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="18"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="21"/>
+      <c r="E7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="21"/>
+      <c r="E8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="21"/>
+      <c r="E9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="21"/>
+      <c r="E10" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="21"/>
+      <c r="E11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="21"/>
+      <c r="E12" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="18"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="E13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C65" s="18"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="21"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C67" s="18"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="21"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C69" s="18"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="21"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="21"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="21"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="21"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C77" s="18"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="21"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="21"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="21"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="21"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="21"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="21"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C91" s="18"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="21"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C93" s="18"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C95" s="18"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="21"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C96" s="18"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="21"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C97" s="18"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="21"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="21"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C99" s="18"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="21"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C100" s="18"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="20"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C101" s="18"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="21"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C102" s="18"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C103" s="18"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
     </row>
     <row r="104" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="25"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E104">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E104">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F104">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3876,7 +3732,7 @@
   <dimension ref="C4:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3891,154 +3747,152 @@
       <c r="C4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="3" cm="1">
+      <c r="D4" s="31" cm="1">
         <f t="array" ref="D4">(
-(
-(COUNTIF(Packets!E5:E144,"fully implemented")*Settings!D5)
-+(COUNTIF(Packets!E5:E144,"working implemented")*Settings!D6)
-+(COUNTIF(Packets!E5:E144,"partly implemented")*Settings!D7)
-+(COUNTIF(Packets!E5:E144,"tried")*Settings!D8)
-+(COUNTIF(Packets!E5:E144,"not started")*Settings!D9)
+(COUNTIF(Packets!E5:E143,"fully implemented")*Settings!D5)
++(COUNTIF(Packets!E5:E143,"working implemented")*Settings!D6)
++(COUNTIF(Packets!E5:E143,"partly implemented")*Settings!D7)
++(COUNTIF(Packets!E5:E143,"tried")*Settings!D8)
++(COUNTIF(Packets!E5:E143,"not started")*Settings!D9)
 +(COUNTIF(Miscellaneous!E4:E104,"fully implemented")*Settings!D5)
 +(COUNTIF(Miscellaneous!E4:E104,"working implemented")*Settings!D6)
 +(COUNTIF(Miscellaneous!E4:E104,"partly implemented")*Settings!D7)
 +(COUNTIF(Miscellaneous!E4:E104,"tried")*Settings!D8)
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
-)/(ROWS(Packets!E5:E144+COUNTA(Miscellaneous!E4:E104))
-)*100)</f>
-        <v>34.999999999999993</v>
+)/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104)))</f>
+        <v>0.34532374100719421</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="D7" s="26">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="D7" s="25">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="E7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="F7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="F7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="G7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="G7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="H7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="H7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="I7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.59999999999999876</v>
-      </c>
-      <c r="J7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="I7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
+        <v>0.52517985611510731</v>
+      </c>
+      <c r="J7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="K7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="L7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="M7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="N7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="O7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="P7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="Q7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="R7" s="27">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="R7" s="26">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="S7" s="28">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="S7" s="27">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="29">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="D8" s="28">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="E8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="F8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="G8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="G8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="H8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="H8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
       </c>
-      <c r="I8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.59999999999999876</v>
-      </c>
-      <c r="J8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="I8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
+        <v>0.52517985611510731</v>
+      </c>
+      <c r="J8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="K8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="L8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="M8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="N8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="O8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="P8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="Q8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="R8" s="30">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="R8" s="29">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="31">
-        <f>MAX(0, MIN(COLUMN()-3, D4/100*Settings!D12)-(COLUMN()-4))</f>
+      <c r="S8" s="30">
+        <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>0</v>
       </c>
     </row>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529D2E0-89B5-4A18-8F34-DCF00513F4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764742C8-0F06-4AD6-B400-5F79CDB7000E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packets" sheetId="1" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F144"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1423,7 +1423,7 @@
         <v>94</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -3731,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F031A1-1BAA-40E9-B49C-760E1954E8E5}">
   <dimension ref="C4:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3760,7 +3760,7 @@
 +(COUNTIF(Miscellaneous!E4:E104,"tried")*Settings!D8)
 +(COUNTIF(Miscellaneous!E4:E104,"not started")*Settings!D9)
 )/(ROWS(Packets!E5:E143+COUNTA(Miscellaneous!E4:E104)))</f>
-        <v>0.34532374100719421</v>
+        <v>0.35251798561151076</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="I7" s="26">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.52517985611510731</v>
+        <v>0.64028776978417223</v>
       </c>
       <c r="J7" s="26">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="I8" s="29">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.52517985611510731</v>
+        <v>0.64028776978417223</v>
       </c>
       <c r="J8" s="29">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141FBC90-BB21-48A9-8695-8CAC81E7D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E7A093-4FB2-4299-8231-CA2EAECC5DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="160">
   <si>
     <t>Packet</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>foodSaturation test</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1652,7 +1655,7 @@
         <v>138</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="12"/>
     </row>
@@ -1757,7 +1760,7 @@
         <v>138</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" s="12"/>
     </row>
@@ -2414,9 +2417,11 @@
         <v>138</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G77" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C78" s="11" t="s">
@@ -2761,7 +2766,7 @@
         <v>136</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G100" s="12"/>
     </row>
@@ -2971,7 +2976,7 @@
         <v>136</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G114" s="12"/>
     </row>
@@ -3468,7 +3473,7 @@
   <dimension ref="C4:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3496,7 +3501,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.15683453237410069</v>
+        <v>0.16546762589928055</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3511,7 +3516,7 @@
       </c>
       <c r="F7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.5093525179856111</v>
+        <v>0.64748201438848874</v>
       </c>
       <c r="G7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3577,7 +3582,7 @@
       </c>
       <c r="F8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.5093525179856111</v>
+        <v>0.64748201438848874</v>
       </c>
       <c r="G8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3672,7 +3677,7 @@
   <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E7A093-4FB2-4299-8231-CA2EAECC5DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9168DD9-4A2D-4332-AB4E-FA7E64DB4D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,43 +875,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <border>
         <left style="thin">
@@ -1273,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3063,7 +3027,7 @@
         <v>135</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>139</v>
@@ -3436,30 +3400,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:D144">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Client"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:F144">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9168DD9-4A2D-4332-AB4E-FA7E64DB4D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7FBE4-6A0F-46DC-8532-68BA72CD60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3027,7 +3028,7 @@
         <v>135</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>139</v>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7FBE4-6A0F-46DC-8532-68BA72CD60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE323EBE-3BBF-4C23-82C7-3B2EEB692AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3105,7 +3105,7 @@
         <v>135</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F125" s="24" t="s">
         <v>139</v>
@@ -3438,7 +3438,7 @@
   <dimension ref="C4:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3466,7 +3466,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.16546762589928055</v>
+        <v>0.16294964028776979</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="F7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.64748201438848874</v>
+        <v>0.60719424460431659</v>
       </c>
       <c r="G7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="F8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.64748201438848874</v>
+        <v>0.60719424460431659</v>
       </c>
       <c r="G8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3642,7 +3642,7 @@
   <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE323EBE-3BBF-4C23-82C7-3B2EEB692AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2A315-A6B3-4FCC-B078-2238509BCE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
   <dimension ref="C3:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3105,7 +3105,7 @@
         <v>135</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F125" s="24" t="s">
         <v>139</v>
@@ -3466,7 +3466,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.16294964028776979</v>
+        <v>0.16546762589928055</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="F7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.60719424460431659</v>
+        <v>0.64748201438848874</v>
       </c>
       <c r="G7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="F8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.60719424460431659</v>
+        <v>0.64748201438848874</v>
       </c>
       <c r="G8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2A315-A6B3-4FCC-B078-2238509BCE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE706B78-0410-4611-84E9-AFED143DA0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="161">
   <si>
     <t>Packet</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>foodSaturation test</t>
+  </si>
+  <si>
+    <t>update LoadedChunk based on what block is held</t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,7 +1252,7 @@
     <col min="4" max="4" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -3377,12 +3380,14 @@
         <v>135</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F143" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G143" s="12"/>
+      <c r="G143" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="144" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C144" s="14" t="s">
@@ -3466,7 +3471,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.16546762589928055</v>
+        <v>0.16798561151079136</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3481,7 +3486,7 @@
       </c>
       <c r="F7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.64748201438848874</v>
+        <v>0.68776978417266177</v>
       </c>
       <c r="G7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3547,7 +3552,7 @@
       </c>
       <c r="F8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.64748201438848874</v>
+        <v>0.68776978417266177</v>
       </c>
       <c r="G8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE706B78-0410-4611-84E9-AFED143DA0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B79C2C-DAF2-4623-915E-C24C9BE4389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1242,7 +1241,7 @@
   <dimension ref="C3:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3350,7 +3349,7 @@
         <v>135</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F141" s="24" t="s">
         <v>139</v>
@@ -3471,7 +3470,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.16798561151079136</v>
+        <v>0.17158273381294961</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3486,7 +3485,7 @@
       </c>
       <c r="F7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.68776978417266177</v>
+        <v>0.74532374100719379</v>
       </c>
       <c r="G7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3552,7 +3551,7 @@
       </c>
       <c r="F8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.68776978417266177</v>
+        <v>0.74532374100719379</v>
       </c>
       <c r="G8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B79C2C-DAF2-4623-915E-C24C9BE4389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E85FC05-0CFF-4ED5-9755-CCC5A537F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="162">
   <si>
     <t>Packet</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>update LoadedChunk based on what block is held</t>
+  </si>
+  <si>
+    <t>first need Players</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3369,7 +3372,9 @@
       <c r="F142" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G142" s="12"/>
+      <c r="G142" s="12" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C143" s="11" t="s">

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E85FC05-0CFF-4ED5-9755-CCC5A537F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB99D7-3DAD-4D1E-B9BA-733EABFDF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB99D7-3DAD-4D1E-B9BA-733EABFDF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88023DD1-2A4A-40D9-9313-7AFB179FB216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1346,7 +1346,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>139</v>
@@ -1363,7 +1363,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>139</v>
@@ -3475,7 +3475,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.17158273381294961</v>
+        <v>0.17086330935251798</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="F7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.74532374100719379</v>
+        <v>0.73381294964028765</v>
       </c>
       <c r="G7" s="5">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="F8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.74532374100719379</v>
+        <v>0.73381294964028765</v>
       </c>
       <c r="G8" s="8">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88023DD1-2A4A-40D9-9313-7AFB179FB216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA1415A-3720-4E32-95C7-ACF5BD3F58D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,9 +478,6 @@
     <t>Status notes</t>
   </si>
   <si>
-    <t>check if all work, and what packet to send</t>
-  </si>
-  <si>
     <t>entity teleport vs entity position?</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>first need Players</t>
+  </si>
+  <si>
+    <t>check if all work, and what packet to send. Not all properties supported</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,7 @@
   <dimension ref="C3:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,7 +1254,7 @@
     <col min="4" max="4" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>145</v>
@@ -1290,7 +1290,7 @@
         <v>139</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
@@ -1346,13 +1346,13 @@
         <v>94</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
@@ -1363,13 +1363,13 @@
         <v>94</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>139</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
         <v>139</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
@@ -1844,7 +1844,7 @@
         <v>139</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.35">
@@ -1938,7 +1938,7 @@
         <v>139</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.35">
@@ -2390,7 +2390,7 @@
         <v>140</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.35">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C86" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>94</v>
@@ -2602,7 +2602,7 @@
         <v>139</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.35">
@@ -3099,7 +3099,7 @@
         <v>139</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.35">
@@ -3373,7 +3373,7 @@
         <v>139</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.35">
@@ -3390,7 +3390,7 @@
         <v>139</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3460,7 +3460,7 @@
   <sheetData>
     <row r="4" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="10">
         <f xml:space="preserve">  (
@@ -3661,7 +3661,7 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
@@ -3674,7 +3674,7 @@
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12">
         <v>16</v>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA1415A-3720-4E32-95C7-ACF5BD3F58D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB7366-8DE5-4CAF-A85D-07646478445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4AE090-F8AE-4D27-9249-85D4D07DD6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77ADA05-8535-40AD-9810-BCD691DB2358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packets" sheetId="1" r:id="rId1"/>
@@ -849,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,7 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,25 +918,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1281,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2133,7 +2114,7 @@
         <v>94</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>139</v>
@@ -3444,30 +3425,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:D144">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Client"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:F144">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Fully implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Partly implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Tried"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3478,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F031A1-1BAA-40E9-B49C-760E1954E8E5}">
-  <dimension ref="B3:S16"/>
+  <dimension ref="C3:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3492,16 +3473,16 @@
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="26" x14ac:dyDescent="0.6">
+    <row r="3" spans="3:19" ht="26" x14ac:dyDescent="0.6">
       <c r="C3" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C4" s="27" t="s">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C4" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <f xml:space="preserve">  (
     (COUNTIF(Packets!E5:E143, "fully implemented") * Settings!D5)
     + (COUNTIF(Packets!E5:E143, "working implemented") * Settings!D6)
@@ -3514,11 +3495,11 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.17805755395683454</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+        <v>0.18129496402877698</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
       <c r="D7" s="3">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
@@ -3529,7 +3510,7 @@
       </c>
       <c r="F7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.84892086330935257</v>
+        <v>0.90071942446043174</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3584,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="6">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
@@ -3595,7 +3576,7 @@
       </c>
       <c r="F8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.84892086330935257</v>
+        <v>0.90071942446043174</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3650,20 +3631,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="2:19" ht="26" x14ac:dyDescent="0.6">
-      <c r="B11" s="26"/>
+    <row r="11" spans="3:19" ht="26" x14ac:dyDescent="0.6">
       <c r="C11" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="27" t="s">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C12" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <f xml:space="preserve">  (
     (COUNTIF(Packets!E5:E143, "fully implemented") * Settings!D5)
     + (COUNTIF(Packets!E5:E143, "working implemented") * Settings!D6)
@@ -3671,11 +3648,11 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.33884892086330937</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+        <v>0.34532374100719426</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
       <c r="D15" s="3">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
@@ -3698,7 +3675,7 @@
       </c>
       <c r="I15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.42158273381294986</v>
+        <v>0.5251798561151082</v>
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3741,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D16" s="6">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
         <v>1</v>
@@ -3764,7 +3741,7 @@
       </c>
       <c r="I16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.42158273381294986</v>
+        <v>0.5251798561151082</v>
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77ADA05-8535-40AD-9810-BCD691DB2358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E24113-30F3-4D9F-9889-C3B0444EF198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2566,7 +2566,7 @@
         <v>94</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F88" s="22" t="s">
         <v>139</v>
@@ -3495,7 +3495,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.18129496402877698</v>
+        <v>0.18489208633093523</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="F7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.90071942446043174</v>
+        <v>0.95827338129496376</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="F8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.90071942446043174</v>
+        <v>0.95827338129496376</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3648,7 +3648,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.34532374100719426</v>
+        <v>0.35251798561151076</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.5251798561151082</v>
+        <v>0.64028776978417223</v>
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="I16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.5251798561151082</v>
+        <v>0.64028776978417223</v>
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E24113-30F3-4D9F-9889-C3B0444EF198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13917EE0-750F-4CE7-AE62-C4E33FEF6227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,7 +1727,7 @@
         <v>94</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>139</v>
@@ -3495,7 +3495,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.18489208633093523</v>
+        <v>0.18848920863309351</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3510,11 +3510,11 @@
       </c>
       <c r="F7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.95827338129496376</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0</v>
+        <v>1.5827338129496216E-2</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3576,11 +3576,11 @@
       </c>
       <c r="F8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.95827338129496376</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0</v>
+        <v>1.5827338129496216E-2</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3648,7 +3648,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.35251798561151076</v>
+        <v>0.35971223021582732</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.64028776978417223</v>
+        <v>0.75539568345323715</v>
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="I16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.64028776978417223</v>
+        <v>0.75539568345323715</v>
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13917EE0-750F-4CE7-AE62-C4E33FEF6227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A960510-22CF-4E3F-9193-22ACCB536D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2054,7 +2054,7 @@
         <v>94</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>139</v>
@@ -3495,7 +3495,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.18848920863309351</v>
+        <v>0.19208633093525179</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>1.5827338129496216E-2</v>
+        <v>7.3381294964028676E-2</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>1.5827338129496216E-2</v>
+        <v>7.3381294964028676E-2</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3648,7 +3648,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.35971223021582732</v>
+        <v>0.36690647482014388</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.75539568345323715</v>
+        <v>0.87050359712230208</v>
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="I16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.75539568345323715</v>
+        <v>0.87050359712230208</v>
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A960510-22CF-4E3F-9193-22ACCB536D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD8DE6F-24A2-42BB-8A91-92343B83D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2778,7 +2778,7 @@
         <v>135</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F102" s="22" t="s">
         <v>139</v>
@@ -3495,7 +3495,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.19208633093525179</v>
+        <v>0.19460431654676261</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>7.3381294964028676E-2</v>
+        <v>0.11366906474820171</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>7.3381294964028676E-2</v>
+        <v>0.11366906474820171</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3648,7 +3648,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.36690647482014388</v>
+        <v>0.37194244604316551</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.87050359712230208</v>
+        <v>0.95107913669064814</v>
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="I16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.87050359712230208</v>
+        <v>0.95107913669064814</v>
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD8DE6F-24A2-42BB-8A91-92343B83D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CFA4E-BA1B-4BA3-B39C-9DBA774C9477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="160">
   <si>
     <t>Packet</t>
   </si>
@@ -472,15 +472,9 @@
     <t>see file</t>
   </si>
   <si>
-    <t>check which if to send rotation and/or position</t>
-  </si>
-  <si>
     <t>Status notes</t>
   </si>
   <si>
-    <t>entity teleport vs entity position?</t>
-  </si>
-  <si>
     <t>status == 5</t>
   </si>
   <si>
@@ -514,12 +508,6 @@
     <t>foodSaturation test</t>
   </si>
   <si>
-    <t>update LoadedChunk based on what block is held</t>
-  </si>
-  <si>
-    <t>first need Players</t>
-  </si>
-  <si>
     <t>check if all work, and what packet to send. Not all properties supported</t>
   </si>
   <si>
@@ -527,6 +515,9 @@
   </si>
   <si>
     <t>Without tests</t>
+  </si>
+  <si>
+    <t>need inventory system, to update LoadedChunk with correct block</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1289,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
@@ -1309,7 +1300,7 @@
         <v>139</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
@@ -1536,7 +1527,7 @@
         <v>139</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
@@ -1859,7 +1850,7 @@
         <v>139</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.35">
@@ -1900,7 +1891,7 @@
         <v>94</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>139</v>
@@ -1915,14 +1906,12 @@
         <v>94</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C46" s="9" t="s">
@@ -1932,7 +1921,7 @@
         <v>94</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>139</v>
@@ -1953,7 +1942,7 @@
         <v>139</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.35">
@@ -2405,7 +2394,7 @@
         <v>140</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.35">
@@ -2530,7 +2519,7 @@
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C86" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>94</v>
@@ -2611,14 +2600,12 @@
         <v>94</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F91" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G91" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C92" s="9" t="s">
@@ -3114,7 +3101,7 @@
         <v>139</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.35">
@@ -3387,9 +3374,7 @@
       <c r="F142" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G142" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="G142" s="10"/>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C143" s="9" t="s">
@@ -3405,7 +3390,7 @@
         <v>139</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3475,12 +3460,12 @@
   <sheetData>
     <row r="3" spans="3:19" ht="26" x14ac:dyDescent="0.6">
       <c r="C3" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C4" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="27">
         <f xml:space="preserve">  (
@@ -3495,7 +3480,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.19460431654676261</v>
+        <v>0.20395683453237409</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3514,7 +3499,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.11366906474820171</v>
+        <v>0.26330935251798548</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3580,7 +3565,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.11366906474820171</v>
+        <v>0.26330935251798548</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3633,12 +3618,12 @@
     </row>
     <row r="11" spans="3:19" ht="26" x14ac:dyDescent="0.6">
       <c r="C11" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C12" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="27">
         <f xml:space="preserve">  (
@@ -3648,7 +3633,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.37194244604316551</v>
+        <v>0.39064748201438848</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3675,11 +3660,11 @@
       </c>
       <c r="I15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.95107913669064814</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0</v>
+        <v>0.25035971223021569</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3741,11 +3726,11 @@
       </c>
       <c r="I16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.95107913669064814</v>
+        <v>1</v>
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0</v>
+        <v>0.25035971223021569</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3853,7 +3838,7 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
@@ -3866,7 +3851,7 @@
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -3898,7 +3883,7 @@
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12">
         <v>16</v>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CFA4E-BA1B-4BA3-B39C-9DBA774C9477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B284914-D116-4D52-8D81-8051D4399E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="161">
   <si>
     <t>Packet</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>need inventory system, to update LoadedChunk with correct block</t>
+  </si>
+  <si>
+    <t>inventory</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3055,7 +3058,9 @@
       <c r="F121" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G121" s="10"/>
+      <c r="G121" s="10" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C122" s="9" t="s">
@@ -3209,7 +3214,6 @@
       <c r="F131" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G131" s="10"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C132" s="9" t="s">
@@ -3224,7 +3228,9 @@
       <c r="F132" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G132" s="10"/>
+      <c r="G132" s="10" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C133" s="9" t="s">
@@ -3299,7 +3305,9 @@
       <c r="F137" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G137" s="10"/>
+      <c r="G137" s="10" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C138" s="9" t="s">

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B284914-D116-4D52-8D81-8051D4399E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5356C-13CE-41F0-BF5A-7D23C45911C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="162">
   <si>
     <t>Packet</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>inventory</t>
+  </si>
+  <si>
+    <t>associated to inventory, see file</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
@@ -3300,13 +3303,13 @@
         <v>135</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F137" s="22" t="s">
         <v>139</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.35">
@@ -3488,7 +3491,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.20395683453237409</v>
+        <v>0.20647482014388488</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3507,7 +3510,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.26330935251798548</v>
+        <v>0.30359712230215807</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3573,7 +3576,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.26330935251798548</v>
+        <v>0.30359712230215807</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3641,7 +3644,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.39064748201438848</v>
+        <v>0.39568345323741005</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3672,7 +3675,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.25035971223021569</v>
+        <v>0.33093525179856087</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3738,7 +3741,7 @@
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.25035971223021569</v>
+        <v>0.33093525179856087</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5356C-13CE-41F0-BF5A-7D23C45911C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E667FFD-82E2-4F17-9D21-9900C0371296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="163">
   <si>
     <t>Packet</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>associated to inventory, see file</t>
+  </si>
+  <si>
+    <t>associated to inventory, not clear what packet does</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3062,7 +3065,7 @@
         <v>139</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.35">

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E667FFD-82E2-4F17-9D21-9900C0371296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7BF3A-5708-49DB-9C91-FA2399C09136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="164">
   <si>
     <t>Packet</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>associated to inventory, not clear what packet does</t>
+  </si>
+  <si>
+    <t>associated to inventory</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2834,12 +2837,14 @@
         <v>135</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C107" s="9" t="s">

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7BF3A-5708-49DB-9C91-FA2399C09136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECC04C-C33B-42B3-801F-1B866932B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
     <t>associated to inventory, not clear what packet does</t>
   </si>
   <si>
-    <t>associated to inventory</t>
+    <t>associated to inventory, currently only implemented for inventory, and when inventory is open</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
     <col min="4" max="4" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECC04C-C33B-42B3-801F-1B866932B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91F799-5B5F-48F7-942F-6E44D6D88AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
     <t>associated to inventory, not clear what packet does</t>
   </si>
   <si>
-    <t>associated to inventory, currently only implemented for inventory, and when inventory is open</t>
+    <t>currently only implemented when clicked in inventory and when only the inventory is open</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
     <col min="4" max="4" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91F799-5B5F-48F7-942F-6E44D6D88AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBC60F5-9119-48B7-A949-0E0F2606EDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
     <t>associated to inventory, not clear what packet does</t>
   </si>
   <si>
-    <t>currently only implemented when clicked in inventory and when only the inventory is open</t>
+    <t>currently only implemented when clicked in inventory and when only the inventory is open, see file</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2837,7 @@
         <v>135</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>139</v>
@@ -3499,7 +3499,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.20647482014388488</v>
+        <v>0.20899280575539569</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.30359712230215807</v>
+        <v>0.34388489208633111</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.30359712230215807</v>
+        <v>0.34388489208633111</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3652,7 +3652,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.39568345323741005</v>
+        <v>0.40071942446043168</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.33093525179856087</v>
+        <v>0.41151079136690694</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.33093525179856087</v>
+        <v>0.41151079136690694</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Programmeren\minecraft-server\progress\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Projects\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBC60F5-9119-48B7-A949-0E0F2606EDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2BE14-5540-4BD2-803C-22AA30550B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2220,7 +2220,7 @@
         <v>94</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>139</v>
@@ -3466,7 +3466,7 @@
   <dimension ref="C3:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3791,6 +3791,18 @@
   </sheetData>
   <conditionalFormatting sqref="D4">
     <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -3810,18 +3822,6 @@
         <color theme="0"/>
         <color rgb="FF92D050"/>
         <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Projects\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2BE14-5540-4BD2-803C-22AA30550B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC666AB-EBA1-4552-AF20-8EE6EDE47D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2220,7 +2220,7 @@
         <v>94</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>139</v>
@@ -3499,7 +3499,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.20899280575539569</v>
+        <v>0.21258992805755397</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.34388489208633111</v>
+        <v>0.40143884892086357</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.34388489208633111</v>
+        <v>0.40143884892086357</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3652,7 +3652,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.40071942446043168</v>
+        <v>0.40791366906474824</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.41151079136690694</v>
+        <v>0.52661870503597186</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.41151079136690694</v>
+        <v>0.52661870503597186</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Projects\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC666AB-EBA1-4552-AF20-8EE6EDE47D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96676F-55BC-454B-901A-304C83A0DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="164">
   <si>
     <t>Packet</t>
   </si>
@@ -508,9 +508,6 @@
     <t>foodSaturation test</t>
   </si>
   <si>
-    <t>check if all work, and what packet to send. Not all properties supported</t>
-  </si>
-  <si>
     <t>With tests</t>
   </si>
   <si>
@@ -530,6 +527,9 @@
   </si>
   <si>
     <t>currently only implemented when clicked in inventory and when only the inventory is open, see file</t>
+  </si>
+  <si>
+    <t>velocity and headPitch not supported</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -736,19 +736,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -852,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,13 +869,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -897,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,15 +893,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1285,16 +1269,16 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1302,30 +1286,30 @@
       <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>156</v>
+      <c r="F5" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="10"/>
@@ -1334,28 +1318,30 @@
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="10"/>
+      <c r="D7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G8" s="10"/>
@@ -1364,13 +1350,13 @@
       <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="D9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="10"/>
@@ -1379,13 +1365,13 @@
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G10" s="10"/>
@@ -1394,13 +1380,13 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="D11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="10"/>
@@ -1409,13 +1395,13 @@
       <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="10"/>
@@ -1424,13 +1410,13 @@
       <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="10"/>
@@ -1439,13 +1425,13 @@
       <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G14" s="10"/>
@@ -1454,13 +1440,13 @@
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G15" s="10"/>
@@ -1469,13 +1455,13 @@
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="D16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G16" s="10"/>
@@ -1484,13 +1470,13 @@
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="D17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G17" s="10"/>
@@ -1499,13 +1485,13 @@
       <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="10"/>
@@ -1514,13 +1500,13 @@
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="22" t="s">
+      <c r="D19" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G19" s="10"/>
@@ -1529,13 +1515,13 @@
       <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="22" t="s">
+      <c r="D20" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G20" s="10" t="s">
@@ -1546,13 +1532,13 @@
       <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G21" s="10"/>
@@ -1561,13 +1547,13 @@
       <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G22" s="10"/>
@@ -1576,13 +1562,13 @@
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G23" s="10"/>
@@ -1591,13 +1577,13 @@
       <c r="C24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G24" s="10"/>
@@ -1606,13 +1592,13 @@
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="D25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G25" s="10"/>
@@ -1621,13 +1607,13 @@
       <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="D26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G26" s="10"/>
@@ -1636,13 +1622,13 @@
       <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="D27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>138</v>
       </c>
       <c r="G27" s="10"/>
@@ -1651,13 +1637,13 @@
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="D28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G28" s="10"/>
@@ -1666,13 +1652,13 @@
       <c r="C29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="D29" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G29" s="10"/>
@@ -1681,13 +1667,13 @@
       <c r="C30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="D30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G30" s="10"/>
@@ -1696,13 +1682,13 @@
       <c r="C31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="D31" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G31" s="10"/>
@@ -1711,13 +1697,13 @@
       <c r="C32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="D32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G32" s="10"/>
@@ -1726,13 +1712,13 @@
       <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="D33" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G33" s="10"/>
@@ -1741,13 +1727,13 @@
       <c r="C34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="22" t="s">
+      <c r="D34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>140</v>
       </c>
       <c r="G34" s="10"/>
@@ -1756,13 +1742,13 @@
       <c r="C35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G35" s="10" t="s">
@@ -1773,13 +1759,13 @@
       <c r="C36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="22" t="s">
+      <c r="D36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G36" s="10"/>
@@ -1788,13 +1774,13 @@
       <c r="C37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -1805,13 +1791,13 @@
       <c r="C38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="22" t="s">
+      <c r="D38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G38" s="10"/>
@@ -1820,13 +1806,13 @@
       <c r="C39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G39" s="10" t="s">
@@ -1837,13 +1823,13 @@
       <c r="C40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="22" t="s">
+      <c r="D40" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G40" s="10"/>
@@ -1852,13 +1838,13 @@
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G41" s="10" t="s">
@@ -1869,13 +1855,13 @@
       <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="22" t="s">
+      <c r="D42" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G42" s="10"/>
@@ -1884,13 +1870,13 @@
       <c r="C43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="22" t="s">
+      <c r="D43" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G43" s="10"/>
@@ -1899,13 +1885,13 @@
       <c r="C44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="22" t="s">
+      <c r="D44" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G44" s="10"/>
@@ -1914,13 +1900,13 @@
       <c r="C45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="22" t="s">
+      <c r="D45" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G45" s="10"/>
@@ -1929,13 +1915,13 @@
       <c r="C46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="22" t="s">
+      <c r="D46" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G46" s="10"/>
@@ -1944,13 +1930,13 @@
       <c r="C47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="22" t="s">
+      <c r="D47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G47" s="10" t="s">
@@ -1961,13 +1947,13 @@
       <c r="C48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="22" t="s">
+      <c r="D48" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G48" s="10"/>
@@ -1976,13 +1962,13 @@
       <c r="C49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="22" t="s">
+      <c r="D49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G49" s="10"/>
@@ -1991,13 +1977,13 @@
       <c r="C50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="22" t="s">
+      <c r="D50" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G50" s="10"/>
@@ -2006,13 +1992,13 @@
       <c r="C51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="22" t="s">
+      <c r="D51" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G51" s="10"/>
@@ -2021,13 +2007,13 @@
       <c r="C52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="22" t="s">
+      <c r="D52" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G52" s="10"/>
@@ -2036,13 +2022,13 @@
       <c r="C53" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="22" t="s">
+      <c r="D53" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G53" s="10"/>
@@ -2051,13 +2037,13 @@
       <c r="C54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="22" t="s">
+      <c r="D54" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="10"/>
@@ -2066,13 +2052,13 @@
       <c r="C55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="22" t="s">
+      <c r="D55" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G55" s="10"/>
@@ -2081,13 +2067,13 @@
       <c r="C56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="22" t="s">
+      <c r="D56" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G56" s="10"/>
@@ -2096,13 +2082,13 @@
       <c r="C57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="22" t="s">
+      <c r="D57" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G57" s="10"/>
@@ -2111,13 +2097,13 @@
       <c r="C58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="22" t="s">
+      <c r="D58" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G58" s="10"/>
@@ -2126,13 +2112,13 @@
       <c r="C59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="22" t="s">
+      <c r="D59" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G59" s="10"/>
@@ -2141,13 +2127,13 @@
       <c r="C60" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="22" t="s">
+      <c r="D60" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G60" s="10"/>
@@ -2156,13 +2142,13 @@
       <c r="C61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="22" t="s">
+      <c r="D61" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G61" s="10"/>
@@ -2171,13 +2157,13 @@
       <c r="C62" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="22" t="s">
+      <c r="D62" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G62" s="10"/>
@@ -2186,13 +2172,13 @@
       <c r="C63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="22" t="s">
+      <c r="D63" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G63" s="10"/>
@@ -2201,13 +2187,13 @@
       <c r="C64" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="22" t="s">
+      <c r="D64" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G64" s="10"/>
@@ -2216,13 +2202,13 @@
       <c r="C65" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F65" s="22" t="s">
+      <c r="D65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G65" s="10"/>
@@ -2231,13 +2217,13 @@
       <c r="C66" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="22" t="s">
+      <c r="D66" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G66" s="10"/>
@@ -2246,13 +2232,13 @@
       <c r="C67" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="22" t="s">
+      <c r="D67" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G67" s="10"/>
@@ -2261,13 +2247,13 @@
       <c r="C68" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F68" s="22" t="s">
+      <c r="D68" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G68" s="10"/>
@@ -2276,13 +2262,13 @@
       <c r="C69" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="22" t="s">
+      <c r="D69" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G69" s="10"/>
@@ -2291,13 +2277,13 @@
       <c r="C70" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="22" t="s">
+      <c r="D70" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G70" s="10"/>
@@ -2306,13 +2292,13 @@
       <c r="C71" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="22" t="s">
+      <c r="D71" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G71" s="10"/>
@@ -2321,13 +2307,13 @@
       <c r="C72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="22" t="s">
+      <c r="D72" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G72" s="10"/>
@@ -2336,13 +2322,13 @@
       <c r="C73" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="22" t="s">
+      <c r="D73" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G73" s="10"/>
@@ -2351,13 +2337,13 @@
       <c r="C74" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="22" t="s">
+      <c r="D74" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G74" s="10"/>
@@ -2366,13 +2352,13 @@
       <c r="C75" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="22" t="s">
+      <c r="D75" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G75" s="10"/>
@@ -2381,13 +2367,13 @@
       <c r="C76" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" s="22" t="s">
+      <c r="D76" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G76" s="10"/>
@@ -2396,13 +2382,13 @@
       <c r="C77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F77" s="22" t="s">
+      <c r="D77" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="21" t="s">
         <v>140</v>
       </c>
       <c r="G77" s="10" t="s">
@@ -2413,13 +2399,13 @@
       <c r="C78" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="22" t="s">
+      <c r="D78" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G78" s="10"/>
@@ -2428,13 +2414,13 @@
       <c r="C79" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="22" t="s">
+      <c r="D79" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G79" s="10"/>
@@ -2443,13 +2429,13 @@
       <c r="C80" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="22" t="s">
+      <c r="D80" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G80" s="10"/>
@@ -2458,13 +2444,13 @@
       <c r="C81" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="22" t="s">
+      <c r="D81" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G81" s="10"/>
@@ -2473,13 +2459,13 @@
       <c r="C82" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" s="22" t="s">
+      <c r="D82" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G82" s="10"/>
@@ -2488,13 +2474,13 @@
       <c r="C83" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83" s="22" t="s">
+      <c r="D83" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G83" s="10"/>
@@ -2503,13 +2489,13 @@
       <c r="C84" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F84" s="22" t="s">
+      <c r="D84" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G84" s="10"/>
@@ -2518,13 +2504,13 @@
       <c r="C85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" s="22" t="s">
+      <c r="D85" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G85" s="10"/>
@@ -2533,13 +2519,13 @@
       <c r="C86" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F86" s="22" t="s">
+      <c r="D86" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G86" s="10"/>
@@ -2548,13 +2534,13 @@
       <c r="C87" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F87" s="22" t="s">
+      <c r="D87" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G87" s="10"/>
@@ -2563,13 +2549,13 @@
       <c r="C88" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D88" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F88" s="22" t="s">
+      <c r="D88" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G88" s="10"/>
@@ -2578,13 +2564,13 @@
       <c r="C89" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D89" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="22" t="s">
+      <c r="D89" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G89" s="10"/>
@@ -2593,13 +2579,13 @@
       <c r="C90" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D90" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="22" t="s">
+      <c r="D90" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G90" s="10"/>
@@ -2608,13 +2594,13 @@
       <c r="C91" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D91" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F91" s="22" t="s">
+      <c r="D91" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G91" s="10"/>
@@ -2623,13 +2609,13 @@
       <c r="C92" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="22" t="s">
+      <c r="D92" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G92" s="10"/>
@@ -2638,13 +2624,13 @@
       <c r="C93" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="22" t="s">
+      <c r="D93" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G93" s="10"/>
@@ -2653,13 +2639,13 @@
       <c r="C94" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="22" t="s">
+      <c r="D94" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G94" s="10"/>
@@ -2668,13 +2654,13 @@
       <c r="C95" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="22" t="s">
+      <c r="D95" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G95" s="10"/>
@@ -2683,13 +2669,13 @@
       <c r="C96" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D96" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" s="22" t="s">
+      <c r="D96" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G96" s="10"/>
@@ -2698,13 +2684,13 @@
       <c r="C97" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D97" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F97" s="22" t="s">
+      <c r="D97" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G97" s="10"/>
@@ -2713,13 +2699,13 @@
       <c r="C98" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="22" t="s">
+      <c r="D98" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G98" s="10"/>
@@ -2728,13 +2714,13 @@
       <c r="C99" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F99" s="22" t="s">
+      <c r="D99" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G99" s="10"/>
@@ -2743,13 +2729,13 @@
       <c r="C100" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E100" s="19" t="s">
+      <c r="D100" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>136</v>
       </c>
       <c r="G100" s="10"/>
@@ -2758,13 +2744,13 @@
       <c r="C101" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F101" s="22" t="s">
+      <c r="D101" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G101" s="10"/>
@@ -2773,13 +2759,13 @@
       <c r="C102" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E102" s="19" t="s">
+      <c r="D102" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G102" s="10"/>
@@ -2788,13 +2774,13 @@
       <c r="C103" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F103" s="22" t="s">
+      <c r="D103" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G103" s="10"/>
@@ -2803,13 +2789,13 @@
       <c r="C104" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F104" s="22" t="s">
+      <c r="D104" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G104" s="10"/>
@@ -2818,13 +2804,13 @@
       <c r="C105" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F105" s="22" t="s">
+      <c r="D105" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G105" s="10"/>
@@ -2833,30 +2819,30 @@
       <c r="C106" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" s="19" t="s">
+      <c r="D106" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C107" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" s="22" t="s">
+      <c r="D107" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G107" s="10"/>
@@ -2865,13 +2851,13 @@
       <c r="C108" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F108" s="22" t="s">
+      <c r="D108" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G108" s="10"/>
@@ -2880,13 +2866,13 @@
       <c r="C109" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" s="22" t="s">
+      <c r="D109" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G109" s="10"/>
@@ -2895,13 +2881,13 @@
       <c r="C110" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D110" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F110" s="22" t="s">
+      <c r="D110" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G110" s="10"/>
@@ -2910,13 +2896,13 @@
       <c r="C111" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D111" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F111" s="22" t="s">
+      <c r="D111" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G111" s="11"/>
@@ -2925,13 +2911,13 @@
       <c r="C112" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D112" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F112" s="22" t="s">
+      <c r="D112" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G112" s="10"/>
@@ -2940,13 +2926,13 @@
       <c r="C113" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F113" s="22" t="s">
+      <c r="D113" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G113" s="10"/>
@@ -2955,13 +2941,13 @@
       <c r="C114" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D114" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" s="19" t="s">
+      <c r="D114" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F114" s="21" t="s">
         <v>136</v>
       </c>
       <c r="G114" s="10"/>
@@ -2970,13 +2956,13 @@
       <c r="C115" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F115" s="22" t="s">
+      <c r="D115" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F115" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G115" s="10"/>
@@ -2985,13 +2971,13 @@
       <c r="C116" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D116" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F116" s="22" t="s">
+      <c r="D116" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G116" s="10"/>
@@ -3000,13 +2986,13 @@
       <c r="C117" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D117" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F117" s="22" t="s">
+      <c r="D117" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G117" s="10"/>
@@ -3015,13 +3001,13 @@
       <c r="C118" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D118" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F118" s="22" t="s">
+      <c r="D118" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G118" s="10"/>
@@ -3030,13 +3016,13 @@
       <c r="C119" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D119" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" s="22" t="s">
+      <c r="D119" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G119" s="10"/>
@@ -3045,13 +3031,13 @@
       <c r="C120" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F120" s="22" t="s">
+      <c r="D120" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F120" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G120" s="10"/>
@@ -3060,30 +3046,30 @@
       <c r="C121" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F121" s="22" t="s">
+      <c r="D121" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F121" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C122" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D122" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F122" s="22" t="s">
+      <c r="D122" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G122" s="10"/>
@@ -3092,13 +3078,13 @@
       <c r="C123" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F123" s="22" t="s">
+      <c r="D123" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G123" s="10"/>
@@ -3107,13 +3093,13 @@
       <c r="C124" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D124" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="19" t="s">
+      <c r="D124" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F124" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G124" s="10" t="s">
@@ -3124,13 +3110,13 @@
       <c r="C125" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D125" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="19" t="s">
+      <c r="D125" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E125" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="F125" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G125" s="10" t="s">
@@ -3141,13 +3127,13 @@
       <c r="C126" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D126" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F126" s="22" t="s">
+      <c r="D126" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G126" s="10"/>
@@ -3156,13 +3142,13 @@
       <c r="C127" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" s="22" t="s">
+      <c r="D127" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F127" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G127" s="10"/>
@@ -3171,13 +3157,13 @@
       <c r="C128" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D128" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F128" s="22" t="s">
+      <c r="D128" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G128" s="10"/>
@@ -3186,13 +3172,13 @@
       <c r="C129" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D129" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F129" s="22" t="s">
+      <c r="D129" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F129" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G129" s="10"/>
@@ -3201,13 +3187,13 @@
       <c r="C130" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D130" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F130" s="22" t="s">
+      <c r="D130" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F130" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G130" s="10"/>
@@ -3216,13 +3202,13 @@
       <c r="C131" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D131" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F131" s="22" t="s">
+      <c r="D131" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3230,30 +3216,30 @@
       <c r="C132" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F132" s="22" t="s">
+      <c r="D132" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C133" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D133" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F133" s="22" t="s">
+      <c r="D133" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G133" s="10"/>
@@ -3262,13 +3248,13 @@
       <c r="C134" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D134" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E134" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F134" s="22" t="s">
+      <c r="D134" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G134" s="10"/>
@@ -3277,13 +3263,13 @@
       <c r="C135" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D135" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F135" s="22" t="s">
+      <c r="D135" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G135" s="10"/>
@@ -3292,13 +3278,13 @@
       <c r="C136" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D136" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F136" s="22" t="s">
+      <c r="D136" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F136" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G136" s="10"/>
@@ -3307,30 +3293,30 @@
       <c r="C137" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E137" s="19" t="s">
+      <c r="D137" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F137" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C138" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F138" s="22" t="s">
+      <c r="D138" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G138" s="10"/>
@@ -3339,13 +3325,13 @@
       <c r="C139" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F139" s="22" t="s">
+      <c r="D139" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G139" s="10"/>
@@ -3354,13 +3340,13 @@
       <c r="C140" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D140" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F140" s="22" t="s">
+      <c r="D140" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G140" s="10"/>
@@ -3369,13 +3355,13 @@
       <c r="C141" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D141" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F141" s="22" t="s">
+      <c r="D141" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G141" s="10"/>
@@ -3384,13 +3370,13 @@
       <c r="C142" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D142" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F142" s="22" t="s">
+      <c r="D142" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E142" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G142" s="10"/>
@@ -3399,30 +3385,30 @@
       <c r="C143" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D143" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" s="19" t="s">
+      <c r="D143" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E143" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="F143" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C144" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D144" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E144" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F144" s="23" t="s">
+      <c r="D144" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F144" s="22" t="s">
         <v>139</v>
       </c>
       <c r="G144" s="13"/>
@@ -3478,15 +3464,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="26" x14ac:dyDescent="0.6">
-      <c r="C3" s="24" t="s">
-        <v>157</v>
+      <c r="C3" s="23" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <f xml:space="preserve">  (
     (COUNTIF(Packets!E5:E143, "fully implemented") * Settings!D5)
     + (COUNTIF(Packets!E5:E143, "working implemented") * Settings!D6)
@@ -3499,7 +3485,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.21258992805755397</v>
+        <v>0.21510791366906473</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3518,7 +3504,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.40143884892086357</v>
+        <v>0.44172661870503571</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3584,7 +3570,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.40143884892086357</v>
+        <v>0.44172661870503571</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3636,15 +3622,15 @@
       </c>
     </row>
     <row r="11" spans="3:19" ht="26" x14ac:dyDescent="0.6">
-      <c r="C11" s="25" t="s">
-        <v>158</v>
+      <c r="C11" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <f xml:space="preserve">  (
     (COUNTIF(Packets!E5:E143, "fully implemented") * Settings!D5)
     + (COUNTIF(Packets!E5:E143, "working implemented") * Settings!D6)
@@ -3652,7 +3638,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.40791366906474824</v>
+        <v>0.41294964028776976</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3683,7 +3669,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.52661870503597186</v>
+        <v>0.60719424460431615</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3749,7 +3735,7 @@
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.52661870503597186</v>
+        <v>0.60719424460431615</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Projects\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96676F-55BC-454B-901A-304C83A0DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43E952-7D7B-4C0B-A7E6-9716435304E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <dimension ref="C3:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,7 +1307,7 @@
         <v>94</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>139</v>
@@ -3485,7 +3485,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.21510791366906473</v>
+        <v>0.21870503597122301</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.44172661870503571</v>
+        <v>0.49928057553956817</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.44172661870503571</v>
+        <v>0.49928057553956817</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3638,7 +3638,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.41294964028776976</v>
+        <v>0.42014388489208632</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.60719424460431615</v>
+        <v>0.72230215827338107</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.60719424460431615</v>
+        <v>0.72230215827338107</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Projects\Programmeren\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43E952-7D7B-4C0B-A7E6-9716435304E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234B931-0EEC-40E6-98A6-81264B1002F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <dimension ref="C3:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,7 +1414,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>139</v>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Projects\Programmeren\minecraft-server\progress\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\_Documenten\github\OscarNOW\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234B931-0EEC-40E6-98A6-81264B1002F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8E04D-77E0-4E58-91F2-E996427E4856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
@@ -966,7 +966,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F0C98F18-9C0E-49B8-BD95-A73C535C2448}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF00C459"/>
@@ -1249,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,7 +1416,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>139</v>
@@ -3485,7 +3487,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.21870503597122301</v>
+        <v>0.22230215827338129</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3504,7 +3506,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.49928057553956817</v>
+        <v>0.55683453237410063</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3570,7 +3572,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.49928057553956817</v>
+        <v>0.55683453237410063</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3638,7 +3640,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.42014388489208632</v>
+        <v>0.42733812949640287</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3669,7 +3671,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.72230215827338107</v>
+        <v>0.83741007194244599</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3735,7 +3737,7 @@
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.72230215827338107</v>
+        <v>0.83741007194244599</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>

--- a/progress/spreadsheet/spreadsheet.xlsx
+++ b/progress/spreadsheet/spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\_Documenten\github\OscarNOW\minecraft-server\progress\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8E04D-77E0-4E58-91F2-E996427E4856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A1E47-6293-4CDA-8D79-58B8A6CAA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1401,7 +1401,7 @@
         <v>94</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>139</v>
@@ -2765,7 +2765,7 @@
         <v>135</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F102" s="21" t="s">
         <v>139</v>
@@ -3487,7 +3487,7 @@
     + (COUNTIF(Packets!F5:F143, "tried") * Settings!D8)
     + (COUNTIF(Packets!F5:F143, "not started") * Settings!D9)
   ) / (ROWS(Packets!E5:E143) * 2)</f>
-        <v>0.22230215827338129</v>
+        <v>0.2197841726618705</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.55683453237410063</v>
+        <v>0.51654676258992804</v>
       </c>
       <c r="H7" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="G8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.55683453237410063</v>
+        <v>0.51654676258992804</v>
       </c>
       <c r="H8" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D4*Settings!D12)-(COLUMN()-4))</f>
@@ -3640,7 +3640,7 @@
     + (COUNTIF(Packets!E5:E143, "tried") * Settings!D8)
     + (COUNTIF(Packets!E5:E143, "not started") * Settings!D9)
   ) / ROWS(Packets!E5:E143)</f>
-        <v>0.42733812949640287</v>
+        <v>0.4223021582733813</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.83741007194244599</v>
+        <v>0.75683453237410081</v>
       </c>
       <c r="K15" s="4">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
-        <v>0.83741007194244599</v>
+        <v>0.75683453237410081</v>
       </c>
       <c r="K16" s="7">
         <f>MAX(0, MIN(COLUMN()-3, D12*Settings!D12)-(COLUMN()-4))</f>
